--- a/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
+++ b/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
@@ -11,6 +11,14 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>aBCdEfGhiJKL</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,60 +358,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B12"/>
+  <dimension ref="B3:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0</v>
       </c>
